--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>685923.1270274787</v>
+        <v>717057.3392626904</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12426458.88989895</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240755</v>
+        <v>6381813.16149734</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9727509.939969771</v>
+        <v>9403040.189879958</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364.9907105361165</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>129.538278081653</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>48.71138231870034</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838597</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>18.14576679396754</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.1234933222808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>72.68466480993119</v>
       </c>
       <c r="W5" t="n">
-        <v>146.3157414449248</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>71.93600982934092</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>185.8117135907286</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>111.35016954044</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>232.6104938959961</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>53.96736632880985</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>27.49920612779675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>228.3927324532993</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>184.4530101301287</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>11.45867661891001</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>28.20584125154446</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>211.0785184722385</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>176.8030671570854</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>133.2519868530433</v>
+        <v>72.57251122165317</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,13 +1824,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>32.9795088473611</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>317.3810635611291</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>172.6255381703885</v>
+        <v>163.68984412497</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>108.9812949757285</v>
+        <v>97.80685860554252</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>98.50090852733777</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>197.4995743803889</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>399.055872209589</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>240.245153033246</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>7.601081015447462</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>106.9578662344163</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>351.3975998694272</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>64.9210906006349</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>17.25588147840214</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>67.88575844059532</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>170.2184505982959</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>336.5720236022905</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.6115225410207</v>
+        <v>15.07437110675895</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>116.93881574185</v>
+        <v>59.3299629153284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>18.93482921065052</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>12.3740563273</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>194.1708171770717</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>121.0389903687753</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.7601806687364</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>42.01201317445354</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>40.36759699736827</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>61.60385878691261</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>251.4632765826875</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>252.7493895559485</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>234.2009798174994</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>17.25588147840256</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>206.1900789192695</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>351.6200826600771</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>365.5629992635216</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.7115619691727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>156.589237176273</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.635933406614</v>
+        <v>670.32375641013</v>
       </c>
       <c r="C2" t="n">
-        <v>1606.635933406614</v>
+        <v>670.32375641013</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362831</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816097</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872929</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>924.0087744690013</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>670.32375641013</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>670.32375641013</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>670.32375641013</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>670.32375641013</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.31341879663</v>
+        <v>670.32375641013</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966388</v>
+        <v>216.8350848567712</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155118</v>
+        <v>216.8350848567712</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>216.8350848567712</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057902</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>659.7474918534679</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>424.5953836217251</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>424.5953836217251</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>424.5953836217251</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>216.8350848567712</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305.0150268210029</v>
+        <v>39.42616776776447</v>
       </c>
       <c r="C4" t="n">
-        <v>305.0150268210029</v>
+        <v>39.42616776776447</v>
       </c>
       <c r="D4" t="n">
-        <v>305.0150268210029</v>
+        <v>39.42616776776447</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>39.42616776776447</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329314</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V4" t="n">
-        <v>927.7205539329314</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="W4" t="n">
-        <v>638.3033838959707</v>
+        <v>267.4157186657818</v>
       </c>
       <c r="X4" t="n">
-        <v>638.3033838959707</v>
+        <v>39.42616776776447</v>
       </c>
       <c r="Y4" t="n">
-        <v>486.6634916512426</v>
+        <v>39.42616776776447</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1272.660291726717</v>
+        <v>1318.301801521354</v>
       </c>
       <c r="C5" t="n">
-        <v>1272.660291726717</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="D5" t="n">
-        <v>914.3945931199664</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="E5" t="n">
-        <v>528.6063405217222</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F5" t="n">
-        <v>117.6204357321147</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2095.040973561288</v>
       </c>
       <c r="W5" t="n">
-        <v>2036.265381963608</v>
+        <v>2095.040973561288</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.799623702529</v>
+        <v>2095.040973561288</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.660291726717</v>
+        <v>1704.901641585476</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>767.9840153902086</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>593.5309861090816</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>444.5965764478304</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>285.3591214423749</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>371.4749568374567</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>629.0260923974442</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687206</v>
+        <v>948.9329878659535</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>1347.42737074149</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1638.786616996056</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>1853.295032556957</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>1973.749505378629</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>1745.647915511893</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1510.49580728015</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1256.258450551949</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1048.406950346416</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>840.646651581462</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800311</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1377.190882465729</v>
       </c>
       <c r="S7" t="n">
-        <v>1448.757520487902</v>
+        <v>1178.011396849955</v>
       </c>
       <c r="T7" t="n">
-        <v>1225.779039682638</v>
+        <v>954.407539542579</v>
       </c>
       <c r="U7" t="n">
-        <v>1225.779039682638</v>
+        <v>954.407539542579</v>
       </c>
       <c r="V7" t="n">
-        <v>971.0945514767509</v>
+        <v>954.407539542579</v>
       </c>
       <c r="W7" t="n">
-        <v>681.6773814397902</v>
+        <v>841.9326208148618</v>
       </c>
       <c r="X7" t="n">
-        <v>453.6878305417729</v>
+        <v>613.9430699168445</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.8952513982428</v>
+        <v>393.1504907733143</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>474.7217947496369</v>
+        <v>1445.96558289315</v>
       </c>
       <c r="C8" t="n">
-        <v>105.7592778092252</v>
+        <v>1445.96558289315</v>
       </c>
       <c r="D8" t="n">
-        <v>105.7592778092252</v>
+        <v>1087.699884286399</v>
       </c>
       <c r="E8" t="n">
-        <v>105.7592778092252</v>
+        <v>701.9116316881548</v>
       </c>
       <c r="F8" t="n">
-        <v>105.7592778092252</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>105.7592778092252</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,7 +4822,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4837,19 +4837,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137587</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4874,10 +4874,10 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4886,25 +4886,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495378</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>229.1404018670022</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C10" t="n">
-        <v>229.1404018670022</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>79.0237624546665</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4962,52 +4962,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>883.5557551938684</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387894</v>
+        <v>628.8712669879816</v>
       </c>
       <c r="W10" t="n">
-        <v>859.5709967387894</v>
+        <v>628.8712669879816</v>
       </c>
       <c r="X10" t="n">
-        <v>631.5814458407721</v>
+        <v>400.8817160899642</v>
       </c>
       <c r="Y10" t="n">
-        <v>410.7888666972419</v>
+        <v>400.8817160899642</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W11" t="n">
-        <v>3215.315153136266</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="12">
@@ -5111,16 +5111,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538.8965081646988</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C13" t="n">
-        <v>538.8965081646988</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D13" t="n">
-        <v>538.8965081646988</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E13" t="n">
-        <v>527.322087337517</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396067</v>
+        <v>95.00286517111721</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242373</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1169.327103036486</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1169.327103036486</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>941.3375521384687</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>720.5449729949386</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1311.909787855438</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C14" t="n">
-        <v>942.9472709150266</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D14" t="n">
-        <v>584.6815723082761</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y14" t="n">
-        <v>1698.50962791956</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5345,46 +5345,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>644.3338566427974</v>
+        <v>753.6735467432883</v>
       </c>
       <c r="C16" t="n">
-        <v>644.3338566427974</v>
+        <v>584.7373638153814</v>
       </c>
       <c r="D16" t="n">
-        <v>494.2172172304616</v>
+        <v>434.6207244030456</v>
       </c>
       <c r="E16" t="n">
-        <v>494.2172172304616</v>
+        <v>286.7076308206525</v>
       </c>
       <c r="F16" t="n">
-        <v>347.3272697325513</v>
+        <v>139.8176833227422</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1161.740577577775</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W16" t="n">
-        <v>872.3234075408147</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X16" t="n">
-        <v>644.3338566427974</v>
+        <v>935.322011573528</v>
       </c>
       <c r="Y16" t="n">
-        <v>644.3338566427974</v>
+        <v>935.322011573528</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1892.184635123826</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C17" t="n">
-        <v>1523.222118183415</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D17" t="n">
-        <v>1164.956419576664</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E17" t="n">
-        <v>779.1681669784198</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3292.293186409815</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V17" t="n">
-        <v>3005.018888719142</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W17" t="n">
-        <v>2652.250233449028</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X17" t="n">
-        <v>2278.784475187948</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y17" t="n">
-        <v>2278.784475187948</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,10 +5609,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>697.9541770656748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C19" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W19" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X19" t="n">
-        <v>872.3234075408147</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="Y19" t="n">
-        <v>872.3234075408147</v>
+        <v>231.8553933260925</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V20" t="n">
-        <v>3215.315153136266</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W20" t="n">
-        <v>3215.315153136266</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="X20" t="n">
-        <v>2841.849394875187</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="Y20" t="n">
-        <v>2731.767278738087</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.2149530574645</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C22" t="n">
-        <v>234.2149530574645</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1737.96822364669</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>1516.201608216216</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U22" t="n">
-        <v>1227.09874134186</v>
+        <v>1727.800028512342</v>
       </c>
       <c r="V22" t="n">
-        <v>972.4142531359726</v>
+        <v>1473.115540306455</v>
       </c>
       <c r="W22" t="n">
-        <v>682.9970830990119</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="X22" t="n">
-        <v>455.0075322009945</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y22" t="n">
-        <v>234.2149530574645</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1624.638712032431</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C23" t="n">
-        <v>1624.638712032431</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D23" t="n">
-        <v>1266.373013425681</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E23" t="n">
-        <v>880.5847608274364</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F23" t="n">
-        <v>469.5988560378289</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G23" t="n">
         <v>66.51211643218343</v>
@@ -5989,19 +5989,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
@@ -6019,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883008</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269323</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.778044008243</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y23" t="n">
-        <v>1624.638712032431</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.3679798527295</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C25" t="n">
-        <v>511.4317969248226</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218343</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>970.0546934046018</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X25" t="n">
-        <v>862.0164446829692</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.0164446829692</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.798686923957</v>
+        <v>1878.169188758593</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.836169983545</v>
+        <v>1878.169188758593</v>
       </c>
       <c r="D26" t="n">
-        <v>892.5704713767946</v>
+        <v>1519.903490151843</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>1134.115237553599</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X26" t="n">
-        <v>2071.975386180639</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y26" t="n">
-        <v>2006.398526988078</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>231.8553933260938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>231.8553933260938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610489</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046018</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676413</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696239</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y28" t="n">
-        <v>231.8553933260938</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1274.53911114974</v>
+        <v>1246.723135529484</v>
       </c>
       <c r="C29" t="n">
-        <v>1274.53911114974</v>
+        <v>877.7606185890727</v>
       </c>
       <c r="D29" t="n">
-        <v>1274.53911114974</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G29" t="n">
         <v>108.5090151927147</v>
@@ -6460,19 +6460,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W29" t="n">
-        <v>2424.744041450754</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X29" t="n">
-        <v>2051.278283189674</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y29" t="n">
-        <v>1661.138951213862</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>530.5487792519424</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C31" t="n">
-        <v>530.5487792519424</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D31" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>1094.090022971289</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>866.1004720732712</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y31" t="n">
-        <v>645.3078929297411</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1636.624422581789</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3097.195137235408</v>
+        <v>3155.385897666236</v>
       </c>
       <c r="V32" t="n">
-        <v>2766.132249891837</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="W32" t="n">
-        <v>2413.363594621723</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X32" t="n">
-        <v>2413.363594621723</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y32" t="n">
-        <v>2023.224262645911</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>994.2880032601528</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C34" t="n">
-        <v>825.3518203322459</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D34" t="n">
-        <v>675.2351809199101</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E34" t="n">
-        <v>527.322087337517</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F34" t="n">
-        <v>380.4321398396067</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="G34" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1403.92601898841</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>1403.92601898841</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>1175.936468090393</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1175.936468090393</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2201.7190780849</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C35" t="n">
-        <v>1832.756561144488</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D35" t="n">
-        <v>1474.490862537737</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>1088.702609939493</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>677.7167051498857</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>262.6442549948821</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
@@ -6973,16 +6973,16 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2961.784676410101</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W35" t="n">
-        <v>2961.784676410101</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X35" t="n">
-        <v>2588.318918149022</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y35" t="n">
-        <v>2588.318918149022</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="36">
@@ -7019,10 +7019,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>532.4548862703364</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C37" t="n">
-        <v>363.5187033424295</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D37" t="n">
-        <v>213.4020639300938</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
         <v>66.5121164321834</v>
@@ -7140,7 +7140,7 @@
         <v>644.3338566427974</v>
       </c>
       <c r="Y37" t="n">
-        <v>644.3338566427974</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1517.887535471215</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
-        <v>1148.925018530803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>790.6593199240526</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>404.8710673258084</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>404.8710673258084</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>404.8710673258084</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>107.2874669345756</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066531</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W38" t="n">
-        <v>2277.953133796416</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X38" t="n">
-        <v>1904.487375535336</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y38" t="n">
-        <v>1904.487375535336</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>423.5412774992673</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C40" t="n">
-        <v>423.5412774992673</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124868</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7365,19 +7365,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783662</v>
+        <v>1451.524622978537</v>
       </c>
       <c r="V40" t="n">
-        <v>1161.740577577775</v>
+        <v>1196.84013477265</v>
       </c>
       <c r="W40" t="n">
-        <v>872.3234075408147</v>
+        <v>907.422964735689</v>
       </c>
       <c r="X40" t="n">
-        <v>644.3338566427974</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="Y40" t="n">
-        <v>423.5412774992673</v>
+        <v>458.6408346941415</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1887.813801820606</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C41" t="n">
-        <v>1518.851284880194</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D41" t="n">
-        <v>1160.585586273444</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E41" t="n">
-        <v>774.7973336751995</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F41" t="n">
-        <v>363.811428885592</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
@@ -7411,22 +7411,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066532</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2277.953133796418</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>2277.953133796418</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>1887.813801820606</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.4780323548192</v>
+        <v>231.8553933260943</v>
       </c>
       <c r="C43" t="n">
-        <v>364.5418494269123</v>
+        <v>231.8553933260943</v>
       </c>
       <c r="D43" t="n">
         <v>214.4252100145765</v>
@@ -7572,16 +7572,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U43" t="n">
-        <v>1305.569241495684</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1050.884753289797</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W43" t="n">
-        <v>761.4675832528366</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X43" t="n">
-        <v>533.4780323548192</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y43" t="n">
-        <v>533.4780323548192</v>
+        <v>231.8553933260943</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1648.004869410821</v>
+        <v>1590.807527238424</v>
       </c>
       <c r="C44" t="n">
-        <v>1648.004869410821</v>
+        <v>1590.807527238424</v>
       </c>
       <c r="D44" t="n">
-        <v>1289.73917080407</v>
+        <v>1232.541828631673</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>846.753576033429</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>435.7676712438214</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W44" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X44" t="n">
-        <v>2424.744041450754</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y44" t="n">
-        <v>2034.604709474942</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
@@ -7730,10 +7730,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.4780323548192</v>
+        <v>691.6489789975192</v>
       </c>
       <c r="C46" t="n">
-        <v>364.5418494269123</v>
+        <v>522.7127960696123</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145765</v>
+        <v>372.5961566572765</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>224.6830630748834</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>224.6830630748834</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218343</v>
@@ -7809,16 +7809,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7839,19 +7839,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214136</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.507193008249</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W46" t="n">
         <v>1094.090022971289</v>
       </c>
       <c r="X46" t="n">
-        <v>866.1004720732712</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y46" t="n">
-        <v>645.3078929297411</v>
+        <v>873.2974438277589</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>168.7434581780652</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.9393975111061</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>56.27460493020737</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>60.35797727397625</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.74313112736405</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>82.75143752157024</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>108.9336981367006</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>127.2752812289637</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>68.46116002981395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>255.0675936602037</v>
       </c>
       <c r="W5" t="n">
-        <v>202.9252272724882</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>94.59717382052642</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22877,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22956,13 +22956,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>8.850746771008858</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>175.172828796151</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>174.2655518457154</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>247.0511862335955</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -23077,10 +23077,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23184,19 +23184,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>118.9347565187724</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>57.83442166790132</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>198.2808315333519</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>277.2566436803251</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>134.9752860276592</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>137.8199670074838</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>154.194373298769</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>205.1273029151764</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>32.77382140598488</v>
+        <v>93.45329703737505</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,7 +23703,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>170.9384612922591</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>10.37119490900579</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.206442011548774</v>
+        <v>16.14213605696733</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>277.2566436803251</v>
+        <v>288.4310800505111</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>91.26811680410412</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>88.71226382522397</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>11.86585344386447</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>145.9927856228076</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>159.6457400831804</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>118.7517891546209</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>55.47844587228428</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>321.3168480554187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>131.3595915398102</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>184.2518848832327</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>212.5153910651847</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>45.35834646997131</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.22045764091656</v>
+        <v>164.7576090751784</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>134.056356217052</v>
+        <v>191.6652090435736</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>147.0909790483777</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>239.763586996528</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>100.4369472102487</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>206.7132681013596</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.07179951320089</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>104.4219494721156</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>1.209332775557677</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>310.4011377631391</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>87.01161423129975</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>34.74856162292542</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>158.172336097505</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>152.0369588385542</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>131.3595915398098</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>80.02175928634335</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>30.31028741218472</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>45.3587263899318</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>69.12041821276463</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>9.43657108275525</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>781786.9902474432</v>
+        <v>522442.2480109887</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>781786.9902474432</v>
+        <v>714056.9820799474</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>781786.9902474433</v>
+        <v>781786.9902474431</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861031.9629374745</v>
+        <v>861031.9629374743</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861031.9629374745</v>
+        <v>861031.9629374743</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861031.9629374745</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861031.9629374745</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861031.9629374745</v>
+        <v>861031.9629374743</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861031.9629374744</v>
+        <v>861031.9629374745</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861031.9629374744</v>
+        <v>861031.9629374745</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943086</v>
+        <v>203966.5811971124</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943087</v>
+        <v>279547.2423401895</v>
       </c>
       <c r="D2" t="n">
         <v>305971.6304943087</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709208</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="G2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="H2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="J2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="K2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
         <v>340997.0989709206</v>
       </c>
       <c r="N2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709208</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>308174.1417414034</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>99404.18284596092</v>
       </c>
       <c r="E3" t="n">
         <v>182072.9798171907</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.920821771112969e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>68999.15441911398</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>71651.52831447154</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>24921.83922824956</v>
       </c>
       <c r="M3" t="n">
         <v>47552.26579341482</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>12754.47490881741</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15634.16823746788</v>
+      </c>
+      <c r="D4" t="n">
         <v>17379.72927547098</v>
-      </c>
-      <c r="C4" t="n">
-        <v>17379.72927547097</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17379.72927547096</v>
       </c>
       <c r="E4" t="n">
         <v>9160.459137079168</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-924325.1175188184</v>
+        <v>-552956.4490258393</v>
       </c>
       <c r="C6" t="n">
-        <v>190426.6660571014</v>
+        <v>-130115.0177075138</v>
       </c>
       <c r="D6" t="n">
-        <v>190426.6660571014</v>
+        <v>95727.19966084295</v>
       </c>
       <c r="E6" t="n">
-        <v>71981.13015719659</v>
+        <v>75109.70052545138</v>
       </c>
       <c r="F6" t="n">
-        <v>254054.1099743871</v>
+        <v>257182.6803426418</v>
       </c>
       <c r="G6" t="n">
-        <v>254054.109974387</v>
+        <v>257182.6803426422</v>
       </c>
       <c r="H6" t="n">
-        <v>254054.1099743872</v>
+        <v>257182.6803426417</v>
       </c>
       <c r="I6" t="n">
-        <v>254054.109974387</v>
+        <v>257182.6803426417</v>
       </c>
       <c r="J6" t="n">
-        <v>86448.93216440456</v>
+        <v>188183.5259235281</v>
       </c>
       <c r="K6" t="n">
-        <v>254054.1099743871</v>
+        <v>185531.1520281703</v>
       </c>
       <c r="L6" t="n">
-        <v>254054.1099743871</v>
+        <v>232260.8411143924</v>
       </c>
       <c r="M6" t="n">
-        <v>206501.8441809722</v>
+        <v>209630.4145492272</v>
       </c>
       <c r="N6" t="n">
-        <v>254054.1099743869</v>
+        <v>257182.6803426421</v>
       </c>
       <c r="O6" t="n">
-        <v>254054.1099743871</v>
+        <v>257182.680342642</v>
       </c>
       <c r="P6" t="n">
-        <v>254054.109974387</v>
+        <v>257182.6803426421</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>614.0550137694783</v>
+      </c>
+      <c r="C3" t="n">
+        <v>853.7106645376841</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26776,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>239.6556507682059</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>80.35422757985498</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,16 +27032,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022537</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>504.1681401741882</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>436.6197581489562</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>402.5195786621583</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.85280893410651</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>395.7826592700993</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
